--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rc97ceee53c1046e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rb5be89e804d64639"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rb5be89e804d64639"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rbdd512c7b8164b65"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rbdd512c7b8164b65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rdbe47457dddc4c0d"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rdbe47457dddc4c0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R3cda2be7b8cf4cd5"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R3cda2be7b8cf4cd5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R47bef60d980645a2"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R47bef60d980645a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Reb13b07b6ee24c2e"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Reb13b07b6ee24c2e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rae6f5df2951746a9"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rae6f5df2951746a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rbc033f99cf5c4279"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rbc033f99cf5c4279"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R6ce9eb390e064180"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R6ce9eb390e064180"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R1bbd19aebef4498d"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,12 +5,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R1bbd19aebef4498d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rd18576aa65b84e12"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>
     <x:definedName name="TotalSales">'Sales'!$F$2:$F$4</x:definedName>
   </x:definedNames>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rd18576aa65b84e12"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R7eecd8b262d64b68"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R7eecd8b262d64b68"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R6150154f67d942d8"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R6150154f67d942d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R7312f285885f4fbb"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R7312f285885f4fbb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R9129ac4b25654527"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R9129ac4b25654527"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R9624b1680a5b411f"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R9624b1680a5b411f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R37a143ab88da409e"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R37a143ab88da409e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R5565841c065f4c8f"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R5565841c065f4c8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rfdcb6dcf413845d8"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rfdcb6dcf413845d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R9b5916c107e346d1"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R9b5916c107e346d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rf3546fb6b364493c"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rf3546fb6b364493c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rb8155eda439f4a7c"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rb8155eda439f4a7c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rd774f456e3784fa3"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rd774f456e3784fa3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R7e59f5c5d99f4af3"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R7e59f5c5d99f4af3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R0b5f5e40f73a46de"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R0b5f5e40f73a46de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Ra68cdeca0961416d"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Ra68cdeca0961416d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R177791fd263d4ba9"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R177791fd263d4ba9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rf0ecae25100a4b2b"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rf0ecae25100a4b2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rc8fffbc7d6c643ea"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rc8fffbc7d6c643ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rf0b13616e7004910"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rf0b13616e7004910"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rbfa0914fc90a4b94"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rbfa0914fc90a4b94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R9b0e5200db6b4d33"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R9b0e5200db6b4d33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rc810ad9b8cf84a25"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rc810ad9b8cf84a25"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Reb149feb49af43d5"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Reb149feb49af43d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R25ac4d65055947be"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R25ac4d65055947be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R7a346b4c53a74c6d"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="R7a346b4c53a74c6d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rb92e35bfb3fe452f"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/39_NamedRanges.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rb92e35bfb3fe452f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="1" r:id="Rfcc74978871e41d5"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="QuarterlySales">'Sales'!$B$2:$E$4</x:definedName>
